--- a/Sourcing/Go_Kart_Expense_Sheet.xlsx
+++ b/Sourcing/Go_Kart_Expense_Sheet.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/23683ba6c283963f/Personal Projects/Projects - Billy/JetCat Go Kart/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\billy\Repositories\Jet-Go-Kart\Sourcing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{2636FB79-2C9F-4152-B79E-811525A69DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E84660D-7C84-466F-BC4A-DE19CC61C3D7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9280C8-CCBF-4E28-86F5-D44A181639CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="17500" xr2:uid="{E6465227-D213-4A8A-B262-DFB5288DBA52}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{E6465227-D213-4A8A-B262-DFB5288DBA52}"/>
   </bookViews>
   <sheets>
-    <sheet name="JetCat Go-Kart Expenses" sheetId="1" r:id="rId1"/>
+    <sheet name="Kart-Expenses-Frame" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Item</t>
   </si>
@@ -63,33 +63,6 @@
   </si>
   <si>
     <t>Actual Arrival</t>
-  </si>
-  <si>
-    <t>JetCat P300-Pro</t>
-  </si>
-  <si>
-    <t>P300-PRO– jetcat-turbines-americas (jetcatturbinesamericas.com)</t>
-  </si>
-  <si>
-    <t>JetCat Americas</t>
-  </si>
-  <si>
-    <t>Main Turbine for Go Kart</t>
-  </si>
-  <si>
-    <t>67 lbs of thrust</t>
-  </si>
-  <si>
-    <t>Facebook Marketplace go-Kart</t>
-  </si>
-  <si>
-    <t>Seller</t>
-  </si>
-  <si>
-    <t>The Go Kart</t>
-  </si>
-  <si>
-    <t>Dimensions:</t>
   </si>
 </sst>
 </file>
@@ -115,23 +88,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -139,20 +118,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -166,24 +176,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{30F403CF-9407-4D0E-9344-92AB41F9DB5E}" name="Table1" displayName="Table1" ref="A1:I55" totalsRowShown="0">
-  <autoFilter ref="A1:I55" xr:uid="{30F403CF-9407-4D0E-9344-92AB41F9DB5E}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{4FA08CED-BFB1-4846-88A1-EFC027628DBD}" name="Item"/>
-    <tableColumn id="2" xr3:uid="{1FB17B56-5134-4D75-A4EE-F384B89E454D}" name="Item Link"/>
-    <tableColumn id="3" xr3:uid="{B34A4CBB-C564-4074-BD2C-0F16F395D7E5}" name="Price" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{3BA46502-81AE-4B37-AE02-5A6609BBE439}" name="Store"/>
-    <tableColumn id="5" xr3:uid="{AC06368C-36C4-48B2-BBF7-0D29A7E5F62D}" name="Reason"/>
-    <tableColumn id="6" xr3:uid="{4179FC84-1880-44E1-88C2-A14507D19338}" name="Notes"/>
-    <tableColumn id="7" xr3:uid="{7A320446-28A7-41AE-9E96-C6E1BCF9C3D6}" name="Order Date"/>
-    <tableColumn id="8" xr3:uid="{5C00CBE7-53AE-4F10-BFA1-0CA5C49A5BD9}" name="Expected Arrival"/>
-    <tableColumn id="9" xr3:uid="{1629EE38-2FA4-4BDC-B046-3E20EE5148E5}" name="Actual Arrival"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -502,101 +494,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E7EF66-1D5C-41F1-BAFF-8933231F7F85}">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FE0088-873D-4136-B35E-093FF67C0632}">
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="27.26953125" customWidth="1"/>
-    <col min="6" max="6" width="27.7265625" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2">
-        <f>5399</f>
-        <v>5399</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2">
-        <f>250</f>
-        <v>250</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://jetcatturbinesamericas.com/products/p300-pro" xr:uid="{07B44B8F-9C0E-4F1E-9B31-D262837ECBE6}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>